--- a/order_template/上海百力格DNA合成订购表.xlsx
+++ b/order_template/上海百力格DNA合成订购表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\TopGenProject\codes\172.16.10.9\PrimerDesign\order_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\TopGenProject\codes\172.16.10.9\prime-design\order_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9058377D-3DF3-43C1-AD30-BA82533EDC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5DCF5B-973E-4C35-9440-A659E57013FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="修饰列表" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="可合成修饰种类" sheetId="3" r:id="rId3"/>
     <sheet name="填写说明" sheetId="8" r:id="rId4"/>
-    <sheet name="实验用引物对（不需要订购合成）" sheetId="9" r:id="rId5"/>
+    <sheet name="实验用引物对（不需要订购合成）" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DNA合成订购表!$A$1:$P$19</definedName>
@@ -307,7 +307,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="481">
   <si>
     <t>客户固定编号</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>溶解浓度（uM)</t>
-  </si>
-  <si>
-    <t>上海百力格生物技术有限公司  DNA合成订购表</t>
   </si>
   <si>
     <t>订购日期：</t>
@@ -2345,119 +2342,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>primerID</t>
-  </si>
-  <si>
-    <t>sampleSn</t>
-  </si>
-  <si>
-    <t>pos</t>
-  </si>
-  <si>
-    <t>ForwardPrimer(Fp)</t>
-  </si>
-  <si>
-    <t>ReversePrimer(Rp)</t>
-  </si>
-  <si>
-    <t>FpTm</t>
-  </si>
-  <si>
-    <t>RpTm</t>
-  </si>
-  <si>
-    <t>FpSize</t>
-  </si>
-  <si>
-    <t>RpSize</t>
-  </si>
-  <si>
-    <t>FpGC(%)</t>
-  </si>
-  <si>
-    <t>RpGC(%)</t>
-  </si>
-  <si>
-    <t>FpPos</t>
-  </si>
-  <si>
-    <t>RpPos</t>
-  </si>
-  <si>
-    <t>AmpSize(bp)</t>
-  </si>
-  <si>
-    <t>AmpGC</t>
-  </si>
-  <si>
-    <t>AmpPos</t>
-  </si>
-  <si>
-    <t>Penalty</t>
-  </si>
-  <si>
-    <t>Chr</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>浙江绍兴鼎晶生物医药科技股份有限公司</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>chrom</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>alt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TemplateID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Selected</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GnlAmpSize (bp)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cHGVS</t>
-  </si>
-  <si>
-    <t>pHGVS</t>
-  </si>
-  <si>
-    <t>failed_reason</t>
-  </si>
-  <si>
-    <t>vaf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>depth</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gene</t>
+    <t>上海百力格生物技术有限公司  DNA合成订购表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2465,7 +2354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -2835,13 +2724,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="29">
@@ -3447,7 +3329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3602,8 +3484,55 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="24" borderId="10" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="24" borderId="10" xfId="54" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="24" borderId="15" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="48" fillId="24" borderId="10" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3738,67 +3667,17 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="24" borderId="10" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="24" borderId="10" xfId="54" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="24" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="24" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="27" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="24" borderId="15" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -5328,400 +5207,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57"/>
-      <c r="B1" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="61"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="73" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="74"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="63"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="97"/>
     </row>
     <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>472</v>
-      </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="89"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="102"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>477</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="85" t="s">
-        <v>478</v>
-      </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="89"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="101"/>
+      <c r="P6" s="102"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="95" t="s">
-        <v>473</v>
-      </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="100"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="59"/>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102" t="s">
-        <v>410</v>
-      </c>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="104"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61" t="s">
+        <v>409</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
     </row>
     <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="92" t="s">
-        <v>474</v>
-      </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="74"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="87"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="105" t="s">
-        <v>475</v>
-      </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="74"/>
+        <v>24</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="87"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
+        <v>28</v>
+      </c>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="93" t="s">
-        <v>475</v>
-      </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
+      <c r="D15" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>474</v>
-      </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="77"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>476</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="52" t="s">
-        <v>477</v>
-      </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="68"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="81"/>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>501</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="71"/>
+        <v>34</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="84"/>
     </row>
     <row r="19" spans="1:16" s="18" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>0</v>
@@ -5730,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>2</v>
@@ -5745,10 +5624,10 @@
         <v>5</v>
       </c>
       <c r="I19" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="30" t="s">
         <v>38</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>39</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>8</v>
@@ -5757,7 +5636,7 @@
         <v>9</v>
       </c>
       <c r="M19" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N19" s="29" t="s">
         <v>10</v>
@@ -11783,14 +11662,6 @@
     <protectedRange algorithmName="SHA-512" hashValue="mUMRCW+2E+U5YGRJGrvdpmCcCfs11FpS7yE404eOWMkstqDiaeQ+Gd2GA6rAv9VeaLGfgGh6RqdOVj7P4MfRYw==" saltValue="M8GiKzXQYLJYyqIuySmxZw==" spinCount="100000" sqref="B4:E7" name="区域1"/>
   </protectedRanges>
   <mergeCells count="24">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:P7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="A1:A3"/>
@@ -11807,6 +11678,14 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:P6"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:P7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="10">
@@ -11888,273 +11767,273 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="I1" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="107"/>
+      <c r="E2" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="106"/>
       <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="106" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="107"/>
+      <c r="K2" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" ref="D3:D17" si="0">LEN(C3)</f>
         <v>1</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="17">
         <v>1</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="17">
         <v>1</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="17">
         <v>1</v>
       </c>
       <c r="K5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" s="17">
         <v>1</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>80</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>81</v>
       </c>
       <c r="J7" s="17">
         <v>1</v>
       </c>
       <c r="K7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="9"/>
       <c r="H8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>88</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>89</v>
       </c>
       <c r="J8" s="17">
         <v>1</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
@@ -12164,10 +12043,10 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>94</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>95</v>
       </c>
       <c r="J9" s="17">
         <v>1</v>
@@ -12177,13 +12056,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
@@ -12193,10 +12072,10 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>100</v>
       </c>
       <c r="J10" s="17">
         <v>1</v>
@@ -12206,13 +12085,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
@@ -12221,13 +12100,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -12236,13 +12115,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
@@ -12251,13 +12130,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
@@ -12266,13 +12145,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -12281,13 +12160,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
@@ -12296,13 +12175,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="0"/>
@@ -12311,13 +12190,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" ref="D18:D59" si="1">LEN(C18)</f>
@@ -12326,13 +12205,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="1"/>
@@ -12341,13 +12220,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" si="1"/>
@@ -12356,13 +12235,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="1"/>
@@ -12371,13 +12250,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="11">
         <f t="shared" si="1"/>
@@ -12386,13 +12265,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="11">
         <f t="shared" si="1"/>
@@ -12401,10 +12280,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="11">
@@ -12414,13 +12293,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D25" s="11">
         <f t="shared" si="1"/>
@@ -12429,13 +12308,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="1"/>
@@ -12444,13 +12323,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="11">
         <f t="shared" si="1"/>
@@ -12459,13 +12338,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="C28" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" s="11">
         <f t="shared" si="1"/>
@@ -12474,13 +12353,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" s="11">
         <f t="shared" si="1"/>
@@ -12489,13 +12368,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="C30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="1"/>
@@ -12504,13 +12383,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="11">
         <f t="shared" si="1"/>
@@ -12519,13 +12398,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="11">
         <f t="shared" si="1"/>
@@ -12534,13 +12413,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="11">
         <f t="shared" si="1"/>
@@ -12549,13 +12428,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="C34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" s="11">
         <f t="shared" si="1"/>
@@ -12564,13 +12443,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D35" s="11">
         <f t="shared" si="1"/>
@@ -12579,13 +12458,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36" s="11">
         <f t="shared" si="1"/>
@@ -12594,13 +12473,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D37" s="11">
         <f t="shared" si="1"/>
@@ -12609,13 +12488,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D38" s="11">
         <f t="shared" si="1"/>
@@ -12624,13 +12503,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39" s="11">
         <f t="shared" si="1"/>
@@ -12639,13 +12518,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="46" t="s">
-        <v>168</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="11">
         <f t="shared" si="1"/>
@@ -12654,13 +12533,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="11">
         <f t="shared" si="1"/>
@@ -12669,13 +12548,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="11">
         <f t="shared" si="1"/>
@@ -12684,13 +12563,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="11">
         <f t="shared" si="1"/>
@@ -12699,73 +12578,73 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="C50" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D50" s="11">
         <f t="shared" si="1"/>
@@ -12774,13 +12653,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D51" s="11">
         <f t="shared" si="1"/>
@@ -12789,13 +12668,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="33" t="s">
-        <v>81</v>
-      </c>
       <c r="C52" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="11">
         <f t="shared" si="1"/>
@@ -12804,13 +12683,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="33" t="s">
-        <v>89</v>
-      </c>
       <c r="C53" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="11">
         <f t="shared" si="1"/>
@@ -12819,13 +12698,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="33" t="s">
-        <v>95</v>
-      </c>
       <c r="C54" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" s="11">
         <f t="shared" si="1"/>
@@ -12834,13 +12713,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" s="11">
         <f t="shared" si="1"/>
@@ -12849,13 +12728,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="C56" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="11">
         <f t="shared" si="1"/>
@@ -12864,13 +12743,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="C57" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="11">
         <f t="shared" si="1"/>
@@ -12879,13 +12758,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" s="11">
         <f t="shared" si="1"/>
@@ -12894,13 +12773,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D59" s="11">
         <f t="shared" si="1"/>
@@ -12909,13 +12788,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="B60" s="46" t="s">
-        <v>421</v>
-      </c>
       <c r="C60" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" s="11">
         <v>1</v>
@@ -12923,13 +12802,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="B61" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>423</v>
-      </c>
       <c r="C61" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" s="11">
         <v>1</v>
@@ -12937,13 +12816,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="B62" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="B62" s="46" t="s">
-        <v>425</v>
-      </c>
       <c r="C62" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="11">
         <v>1</v>
@@ -12956,35 +12835,35 @@
     <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A34">
+    <cfRule type="duplicateValues" dxfId="43" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A35">
+    <cfRule type="duplicateValues" dxfId="42" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:A38 A43 A40:A41">
+    <cfRule type="duplicateValues" dxfId="41" priority="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="43" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="42" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44 A47:A49">
+    <cfRule type="duplicateValues" dxfId="38" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:A46">
+    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="41" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A35">
-    <cfRule type="duplicateValues" dxfId="40" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:A34">
-    <cfRule type="duplicateValues" dxfId="39" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:A46">
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:A59">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H10">
-    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37:A38 A43 A40:A41">
-    <cfRule type="duplicateValues" dxfId="35" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44 A47:A49">
-    <cfRule type="duplicateValues" dxfId="34" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13016,1499 +12895,1499 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>205</v>
-      </c>
       <c r="I2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="K2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="E3" s="46" t="s">
         <v>54</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>55</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="I3" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="E4" s="46" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>362</v>
-      </c>
       <c r="I4" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="K4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="E5" s="46" t="s">
         <v>69</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>70</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>367</v>
-      </c>
       <c r="I5" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="K5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="E6" s="46" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>77</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="I6" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="K6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="33" t="s">
         <v>94</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="E7" s="46" t="s">
         <v>85</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>86</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="I7" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="K7" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L7" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="E8" s="46" t="s">
         <v>92</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>93</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="I8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="K8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="E9" s="46" t="s">
         <v>97</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>98</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="I9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="K9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="E10" s="46" t="s">
         <v>102</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>103</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="I10" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="K10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="E11" s="46" t="s">
         <v>105</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>106</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="I11" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="K11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="E12" s="46" t="s">
         <v>108</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>109</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="I12" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="E13" s="46" t="s">
         <v>111</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>112</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="E14" s="46" t="s">
         <v>114</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>115</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="I14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="M14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="E15" s="46" t="s">
         <v>117</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>118</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="I15" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="E16" s="46" t="s">
         <v>120</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>121</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="I16" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="E17" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="I17" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="46" t="s">
-        <v>125</v>
-      </c>
       <c r="E18" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="I18" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="46" t="s">
-        <v>127</v>
-      </c>
       <c r="E19" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="I19" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="46" t="s">
-        <v>129</v>
-      </c>
       <c r="E20" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>272</v>
-      </c>
       <c r="I20" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="46" t="s">
-        <v>131</v>
-      </c>
       <c r="E21" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="I21" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>133</v>
-      </c>
       <c r="E22" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="I22" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>134</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>135</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="I23" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="E24" s="46" t="s">
         <v>137</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>138</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I24" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="46" t="s">
-        <v>140</v>
-      </c>
       <c r="E25" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="I25" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D26" s="46" t="s">
-        <v>142</v>
-      </c>
       <c r="E26" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="I26" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="46" t="s">
-        <v>144</v>
-      </c>
       <c r="E27" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="I27" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="46" t="s">
-        <v>146</v>
-      </c>
       <c r="E28" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="I28" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D29" s="46" t="s">
-        <v>148</v>
-      </c>
       <c r="E29" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>327</v>
-      </c>
       <c r="I29" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="46" t="s">
-        <v>150</v>
-      </c>
       <c r="E30" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="I30" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="46" t="s">
-        <v>152</v>
-      </c>
       <c r="E31" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="I31" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="J31" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="46" t="s">
-        <v>154</v>
-      </c>
       <c r="E32" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="I32" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="46" t="s">
-        <v>156</v>
-      </c>
       <c r="E33" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="H33" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="I33" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="46" t="s">
-        <v>158</v>
-      </c>
       <c r="E34" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="I34" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="46" t="s">
-        <v>160</v>
-      </c>
       <c r="E35" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G35" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="H35" s="6" t="s">
-        <v>357</v>
-      </c>
       <c r="I35" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="46" t="s">
-        <v>162</v>
-      </c>
       <c r="E36" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I36" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="D37" s="46" t="s">
-        <v>164</v>
-      </c>
       <c r="E37" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37" s="7"/>
       <c r="I37" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="46" t="s">
-        <v>166</v>
-      </c>
       <c r="E38" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F38" s="7"/>
       <c r="I38" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="46" t="s">
-        <v>168</v>
-      </c>
       <c r="E39" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="7"/>
       <c r="I39" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="46" t="s">
-        <v>170</v>
-      </c>
       <c r="E40" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I40" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>172</v>
-      </c>
       <c r="E41" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="46" t="s">
-        <v>174</v>
-      </c>
       <c r="E42" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="46" t="s">
         <v>175</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>176</v>
       </c>
       <c r="E43" s="46"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="46" t="s">
         <v>177</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>178</v>
       </c>
       <c r="E44" s="46"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="46" t="s">
         <v>179</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>180</v>
       </c>
       <c r="E45" s="46"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E46" s="46"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="46" t="s">
         <v>183</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>184</v>
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="46" t="s">
         <v>185</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>186</v>
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>188</v>
-      </c>
       <c r="E49" s="46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="46" t="s">
-        <v>81</v>
-      </c>
       <c r="E51" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="46" t="s">
-        <v>89</v>
-      </c>
       <c r="E52" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="46" t="s">
-        <v>95</v>
-      </c>
       <c r="E53" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="46" t="s">
-        <v>192</v>
-      </c>
       <c r="E55" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="D56" s="46" t="s">
-        <v>194</v>
-      </c>
       <c r="E56" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="D57" s="46" t="s">
-        <v>196</v>
-      </c>
       <c r="E57" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="46" t="s">
-        <v>198</v>
-      </c>
       <c r="E58" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="46" t="s">
+        <v>419</v>
+      </c>
+      <c r="D59" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="D59" s="46" t="s">
-        <v>421</v>
-      </c>
       <c r="E59" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="D60" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="D60" s="46" t="s">
-        <v>423</v>
-      </c>
       <c r="E60" s="46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D61" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="D61" s="46" t="s">
-        <v>425</v>
-      </c>
       <c r="E61" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B64" s="8"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B66" s="8"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B67" s="8"/>
     </row>
@@ -14520,99 +14399,95 @@
     <sortCondition ref="G2:G35"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="33" priority="29"/>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:B4">
-    <cfRule type="duplicateValues" dxfId="32" priority="26"/>
+  <conditionalFormatting sqref="A5:B16 A2:B3">
+    <cfRule type="duplicateValues" dxfId="32" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:B67">
+    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G21">
+    <cfRule type="duplicateValues" dxfId="30" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="duplicateValues" dxfId="29" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G34 G22:G28">
+    <cfRule type="duplicateValues" dxfId="28" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G34">
+    <cfRule type="duplicateValues" dxfId="27" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:H35">
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="31" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8 I6">
+    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="duplicateValues" dxfId="29" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I25">
+    <cfRule type="duplicateValues" dxfId="12" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="duplicateValues" dxfId="27" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I36 I12:I22 I2 I10">
+    <cfRule type="duplicateValues" dxfId="10" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="duplicateValues" dxfId="26" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="duplicateValues" dxfId="25" priority="44"/>
+  <conditionalFormatting sqref="I28:I29">
+    <cfRule type="duplicateValues" dxfId="8" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:H35">
-    <cfRule type="duplicateValues" dxfId="24" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+  <conditionalFormatting sqref="I30:I35 I12:I22 I2 I10">
+    <cfRule type="duplicateValues" dxfId="7" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="duplicateValues" dxfId="22" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="duplicateValues" dxfId="21" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="duplicateValues" dxfId="20" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="duplicateValues" dxfId="19" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G21">
-    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G34">
-    <cfRule type="duplicateValues" dxfId="17" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I25">
-    <cfRule type="duplicateValues" dxfId="16" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I28:I29">
-    <cfRule type="duplicateValues" dxfId="15" priority="40"/>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K11">
-    <cfRule type="duplicateValues" dxfId="14" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:B16 A2:B3">
-    <cfRule type="duplicateValues" dxfId="13" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30:I35 I12:I22 I2 I10">
-    <cfRule type="duplicateValues" dxfId="12" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I36 I12:I22 I2 I10">
-    <cfRule type="duplicateValues" dxfId="11" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:B67">
-    <cfRule type="duplicateValues" dxfId="10" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30:G34 G22:G28">
-    <cfRule type="duplicateValues" dxfId="9" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I6">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8 I6">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14640,7 +14515,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -14648,113 +14523,113 @@
         <v>10</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C2" s="108"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="35"/>
-      <c r="B3" s="109" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="109"/>
+      <c r="B3" s="107" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" s="107"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>437</v>
-      </c>
-      <c r="C4" s="109"/>
+        <v>411</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="107"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>438</v>
-      </c>
-      <c r="C5" s="109"/>
+        <v>425</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>437</v>
+      </c>
+      <c r="C5" s="107"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>434</v>
-      </c>
-      <c r="C6" s="109"/>
+        <v>426</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="107"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>433</v>
-      </c>
-      <c r="C7" s="109"/>
+        <v>427</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>432</v>
+      </c>
+      <c r="C7" s="107"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="B8" s="109" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="109"/>
+        <v>428</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="107"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="B9" s="109" t="s">
-        <v>439</v>
-      </c>
-      <c r="C9" s="109"/>
+        <v>429</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" s="107"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>440</v>
-      </c>
-      <c r="C10" s="109"/>
+        <v>430</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="107"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="B11" s="109" t="s">
-        <v>436</v>
-      </c>
-      <c r="C11" s="109"/>
+        <v>431</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>435</v>
+      </c>
+      <c r="C11" s="107"/>
     </row>
     <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="79" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
+        <v>26</v>
+      </c>
+      <c r="B15" s="92" t="s">
+        <v>444</v>
+      </c>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
@@ -14764,7 +14639,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>2</v>
@@ -14779,10 +14654,10 @@
         <v>5</v>
       </c>
       <c r="H16" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="30" t="s">
         <v>38</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>39</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>8</v>
@@ -14808,7 +14683,7 @@
       <c r="B17" s="35"/>
       <c r="C17" s="36"/>
       <c r="D17" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
@@ -14816,10 +14691,10 @@
       <c r="H17" s="38"/>
       <c r="I17" s="37"/>
       <c r="J17" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K17" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
@@ -14834,7 +14709,7 @@
       <c r="B18" s="35"/>
       <c r="C18" s="36"/>
       <c r="D18" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -14842,10 +14717,10 @@
       <c r="H18" s="40"/>
       <c r="I18" s="37"/>
       <c r="J18" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K18" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -14860,7 +14735,7 @@
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
       <c r="D19" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
@@ -14868,10 +14743,10 @@
       <c r="H19" s="40"/>
       <c r="I19" s="37"/>
       <c r="J19" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K19" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
@@ -14886,7 +14761,7 @@
       <c r="B20" s="42"/>
       <c r="C20" s="43"/>
       <c r="D20" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
@@ -14894,14 +14769,14 @@
       <c r="H20" s="40"/>
       <c r="I20" s="37"/>
       <c r="J20" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K20" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N20" s="37"/>
       <c r="O20" s="39">
@@ -14911,30 +14786,30 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="101" t="s">
-        <v>411</v>
-      </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="79" t="s">
-        <v>445</v>
-      </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
+        <v>26</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="29" t="s">
@@ -14944,7 +14819,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>2</v>
@@ -14959,10 +14834,10 @@
         <v>5</v>
       </c>
       <c r="H25" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="30" t="s">
         <v>38</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>39</v>
       </c>
       <c r="J25" s="29" t="s">
         <v>8</v>
@@ -14986,13 +14861,13 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="35"/>
       <c r="B26" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
@@ -15004,10 +14879,10 @@
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K26" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
@@ -15020,13 +14895,13 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
       <c r="B27" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -15038,10 +14913,10 @@
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K27" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
@@ -15054,13 +14929,13 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
       <c r="B28" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -15072,10 +14947,10 @@
       </c>
       <c r="I28" s="37"/>
       <c r="J28" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K28" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
@@ -15088,13 +14963,13 @@
     <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
       <c r="B29" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
@@ -15106,14 +14981,14 @@
       </c>
       <c r="I29" s="37"/>
       <c r="J29" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K29" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L29" s="30"/>
       <c r="M29" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N29" s="37"/>
       <c r="O29" s="39">
@@ -15123,30 +14998,30 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="47" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="101" t="s">
-        <v>411</v>
-      </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+        <v>21</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
+        <v>26</v>
+      </c>
+      <c r="B33" s="92" t="s">
+        <v>449</v>
+      </c>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="29" t="s">
@@ -15156,7 +15031,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>2</v>
@@ -15171,10 +15046,10 @@
         <v>5</v>
       </c>
       <c r="H34" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="30" t="s">
         <v>38</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>39</v>
       </c>
       <c r="J34" s="29" t="s">
         <v>8</v>
@@ -15198,13 +15073,13 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="35"/>
       <c r="B35" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -15216,16 +15091,16 @@
         <v>5</v>
       </c>
       <c r="J35" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K35" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L35" s="30">
         <v>100</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N35" s="37"/>
       <c r="O35" s="39">
@@ -15236,13 +15111,13 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
       <c r="B36" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
@@ -15254,16 +15129,16 @@
         <v>5</v>
       </c>
       <c r="J36" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K36" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L36" s="30">
         <v>100</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N36" s="37"/>
       <c r="O36" s="39">
@@ -15274,13 +15149,13 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
       <c r="B37" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -15292,16 +15167,16 @@
         <v>5</v>
       </c>
       <c r="J37" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K37" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L37" s="30">
         <v>100</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N37" s="37"/>
       <c r="O37" s="39">
@@ -15312,13 +15187,13 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
       <c r="B38" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
@@ -15330,16 +15205,16 @@
         <v>5</v>
       </c>
       <c r="J38" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="K38" s="30" t="s">
         <v>446</v>
-      </c>
-      <c r="K38" s="30" t="s">
-        <v>447</v>
       </c>
       <c r="L38" s="30">
         <v>100</v>
       </c>
       <c r="M38" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N38" s="37"/>
       <c r="O38" s="39">
@@ -15349,30 +15224,30 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="101" t="s">
-        <v>411</v>
-      </c>
-      <c r="C41" s="101"/>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
+        <v>21</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="79" t="s">
-        <v>445</v>
-      </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
+        <v>26</v>
+      </c>
+      <c r="B42" s="92" t="s">
+        <v>444</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="29" t="s">
@@ -15382,7 +15257,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="30" t="s">
         <v>2</v>
@@ -15397,10 +15272,10 @@
         <v>5</v>
       </c>
       <c r="H43" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="30" t="s">
         <v>38</v>
-      </c>
-      <c r="I43" s="30" t="s">
-        <v>39</v>
       </c>
       <c r="J43" s="29" t="s">
         <v>8</v>
@@ -15424,13 +15299,13 @@
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="35"/>
       <c r="B44" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D44" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
@@ -15442,16 +15317,16 @@
       </c>
       <c r="I44" s="37"/>
       <c r="J44" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K44" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L44" s="30">
         <v>100</v>
       </c>
       <c r="M44" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N44" s="37"/>
       <c r="O44" s="39">
@@ -15462,13 +15337,13 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="42"/>
       <c r="B45" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
@@ -15480,16 +15355,16 @@
       </c>
       <c r="I45" s="37"/>
       <c r="J45" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K45" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L45" s="30">
         <v>100</v>
       </c>
       <c r="M45" s="30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N45" s="37"/>
       <c r="O45" s="39">
@@ -15500,19 +15375,19 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="42"/>
       <c r="B46" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D46" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G46" s="49">
         <v>2</v>
@@ -15522,16 +15397,16 @@
       </c>
       <c r="I46" s="37"/>
       <c r="J46" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K46" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L46" s="30">
         <v>100</v>
       </c>
       <c r="M46" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N46" s="37"/>
       <c r="O46" s="39">
@@ -15542,19 +15417,19 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="42"/>
       <c r="B47" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D47" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G47" s="49">
         <v>2</v>
@@ -15564,16 +15439,16 @@
       </c>
       <c r="I47" s="37"/>
       <c r="J47" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K47" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L47" s="30">
         <v>100</v>
       </c>
       <c r="M47" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N47" s="37"/>
       <c r="O47" s="39">
@@ -15584,16 +15459,16 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="42"/>
       <c r="B48" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D48" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="49">
@@ -15604,16 +15479,16 @@
       </c>
       <c r="I48" s="37"/>
       <c r="J48" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K48" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L48" s="30">
         <v>100</v>
       </c>
       <c r="M48" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N48" s="37"/>
       <c r="O48" s="39">
@@ -15623,30 +15498,30 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="47" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="101" t="s">
-        <v>469</v>
-      </c>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
+        <v>21</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>468</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="79" t="s">
-        <v>445</v>
-      </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
+        <v>26</v>
+      </c>
+      <c r="B52" s="92" t="s">
+        <v>444</v>
+      </c>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="29" t="s">
@@ -15656,7 +15531,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="30" t="s">
         <v>2</v>
@@ -15671,10 +15546,10 @@
         <v>5</v>
       </c>
       <c r="H53" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I53" s="30" t="s">
         <v>38</v>
-      </c>
-      <c r="I53" s="30" t="s">
-        <v>39</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>8</v>
@@ -15698,13 +15573,13 @@
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="35"/>
       <c r="B54" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D54" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
@@ -15716,16 +15591,16 @@
       </c>
       <c r="I54" s="37"/>
       <c r="J54" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K54" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L54" s="30">
         <v>100</v>
       </c>
       <c r="M54" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N54" s="37"/>
       <c r="O54" s="39">
@@ -15736,13 +15611,13 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="42"/>
       <c r="B55" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
@@ -15754,16 +15629,16 @@
       </c>
       <c r="I55" s="37"/>
       <c r="J55" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K55" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L55" s="30">
         <v>100</v>
       </c>
       <c r="M55" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N55" s="37"/>
       <c r="O55" s="39">
@@ -15774,13 +15649,13 @@
     <row r="56" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A56" s="42"/>
       <c r="B56" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
@@ -15792,16 +15667,16 @@
       </c>
       <c r="I56" s="37"/>
       <c r="J56" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K56" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L56" s="30">
         <v>100</v>
       </c>
       <c r="M56" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N56" s="37"/>
       <c r="O56" s="39">
@@ -15812,16 +15687,16 @@
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="42"/>
       <c r="B57" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="49">
@@ -15832,16 +15707,16 @@
       </c>
       <c r="I57" s="37"/>
       <c r="J57" s="30" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K57" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L57" s="30">
         <v>100</v>
       </c>
       <c r="M57" s="30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N57" s="37"/>
       <c r="O57" s="39">
@@ -15852,11 +15727,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="US56ECU2/NIVq36+hy6DJ4oFFvuQRr0RK4N4zYeSeU0FghKS5Yo56gJdFoHI+g5qBEYjmduVSfmC6CsxRbteyA==" saltValue="CfMWuh+3DPSScOzbRGC41Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="20">
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
@@ -15872,6 +15742,11 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="53" type="noConversion"/>
   <dataValidations count="6">
@@ -15919,148 +15794,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E31E9DB-D801-4E81-9A62-D7BA359FBAF0}">
-  <dimension ref="A1:AH1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BE9B1F-5E93-4600-B19F-BDD4BB6F5072}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="5" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" customWidth="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
-        <v>481</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>502</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>482</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>503</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>504</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>514</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>513</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>480</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>507</v>
-      </c>
-      <c r="K1" s="51" t="s">
-        <v>511</v>
-      </c>
-      <c r="L1" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="M1" s="51" t="s">
-        <v>505</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>483</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>484</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q1" s="51" t="s">
-        <v>486</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>487</v>
-      </c>
-      <c r="S1" s="51" t="s">
-        <v>488</v>
-      </c>
-      <c r="T1" s="51" t="s">
-        <v>489</v>
-      </c>
-      <c r="U1" s="51" t="s">
-        <v>490</v>
-      </c>
-      <c r="V1" s="51" t="s">
-        <v>491</v>
-      </c>
-      <c r="W1" s="51" t="s">
-        <v>492</v>
-      </c>
-      <c r="X1" s="51" t="s">
-        <v>493</v>
-      </c>
-      <c r="Y1" s="51" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z1" s="51" t="s">
-        <v>494</v>
-      </c>
-      <c r="AA1" s="51" t="s">
-        <v>495</v>
-      </c>
-      <c r="AB1" s="51" t="s">
-        <v>496</v>
-      </c>
-      <c r="AC1" s="51" t="s">
-        <v>497</v>
-      </c>
-      <c r="AD1" s="51" t="s">
-        <v>498</v>
-      </c>
-      <c r="AE1" s="51" t="s">
-        <v>499</v>
-      </c>
-      <c r="AF1" s="51" t="s">
-        <v>509</v>
-      </c>
-      <c r="AG1" s="51" t="s">
-        <v>510</v>
-      </c>
-      <c r="AH1" s="51" t="s">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>